--- a/Luban/DataTables/Datas/__enums__.xlsx
+++ b/Luban/DataTables/Datas/__enums__.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityPorjects\Luban\DataTables\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MonsterKingdom\Luban\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7759E5E-799B-4CB6-A8C5-86070127858C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,77 +141,77 @@
     <t>life</t>
   </si>
   <si>
+    <t>无属性</t>
+  </si>
+  <si>
+    <t>水属性</t>
+  </si>
+  <si>
+    <t>火属性</t>
+  </si>
+  <si>
+    <t>土属性</t>
+  </si>
+  <si>
+    <t>风属性</t>
+  </si>
+  <si>
+    <t>雷属性</t>
+  </si>
+  <si>
+    <t>冰属性</t>
+  </si>
+  <si>
+    <t>光属性</t>
+  </si>
+  <si>
+    <t>暗属性</t>
+  </si>
+  <si>
+    <t>草属性</t>
+  </si>
+  <si>
+    <t>木属性</t>
+  </si>
+  <si>
+    <t>蒸汽属性</t>
+  </si>
+  <si>
+    <t>岩石属性</t>
+  </si>
+  <si>
+    <t>水晶属性</t>
+  </si>
+  <si>
+    <t>熔岩属性</t>
+  </si>
+  <si>
+    <t>钢属性</t>
+  </si>
+  <si>
+    <t>火焰属性</t>
+  </si>
+  <si>
+    <t>爆炸属性</t>
+  </si>
+  <si>
+    <t>冰晶属性</t>
+  </si>
+  <si>
+    <t>毒属性</t>
+  </si>
+  <si>
+    <t>生命属性</t>
+  </si>
+  <si>
     <t>game.MagicAttribute</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无属性</t>
-  </si>
-  <si>
-    <t>水属性</t>
-  </si>
-  <si>
-    <t>火属性</t>
-  </si>
-  <si>
-    <t>土属性</t>
-  </si>
-  <si>
-    <t>风属性</t>
-  </si>
-  <si>
-    <t>雷属性</t>
-  </si>
-  <si>
-    <t>冰属性</t>
-  </si>
-  <si>
-    <t>光属性</t>
-  </si>
-  <si>
-    <t>暗属性</t>
-  </si>
-  <si>
-    <t>草属性</t>
-  </si>
-  <si>
-    <t>木属性</t>
-  </si>
-  <si>
-    <t>蒸汽属性</t>
-  </si>
-  <si>
-    <t>岩石属性</t>
-  </si>
-  <si>
-    <t>水晶属性</t>
-  </si>
-  <si>
-    <t>熔岩属性</t>
-  </si>
-  <si>
-    <t>钢属性</t>
-  </si>
-  <si>
-    <t>火焰属性</t>
-  </si>
-  <si>
-    <t>爆炸属性</t>
-  </si>
-  <si>
-    <t>冰晶属性</t>
-  </si>
-  <si>
-    <t>毒属性</t>
-  </si>
-  <si>
-    <t>生命属性</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,25 +542,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +590,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -611,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -637,9 +636,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -651,293 +650,293 @@
         <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H5" t="s">
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
         <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
         <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
         <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
         <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H11" t="s">
         <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11">
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H12" t="s">
         <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12">
         <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H13" t="s">
         <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J13">
         <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H14" t="s">
         <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14">
         <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H15" t="s">
         <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J15">
         <v>11</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H16" t="s">
         <v>31</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16">
         <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H17" t="s">
         <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17">
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H18" t="s">
         <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J18">
         <v>14</v>
       </c>
       <c r="K18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="8:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H19" t="s">
         <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J19">
         <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="8:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H20" t="s">
         <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20">
         <v>16</v>
       </c>
       <c r="K20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="8:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H21" t="s">
         <v>36</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J21">
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="8:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H22" t="s">
         <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J22">
         <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="8:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H23" t="s">
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J23">
         <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="8:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H24" t="s">
         <v>39</v>
       </c>
       <c r="I24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J24">
         <v>20</v>
       </c>
       <c r="K24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -946,6 +945,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Luban/DataTables/Datas/__enums__.xlsx
+++ b/Luban/DataTables/Datas/__enums__.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
   <si>
     <t>##var</t>
   </si>
@@ -205,6 +205,176 @@
   </si>
   <si>
     <t>game.MagicAttribute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oint</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>game.SkillConsumePointType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>straight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kindPoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意相同点数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同点数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸汽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>game.SkillLearnType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>talent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>learn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +382,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +404,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +443,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -649,8 +828,8 @@
       <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
-        <v>40</v>
+      <c r="I4" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -663,8 +842,8 @@
       <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
-        <v>41</v>
+      <c r="I5" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -677,8 +856,8 @@
       <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" t="s">
-        <v>42</v>
+      <c r="I6" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -691,8 +870,8 @@
       <c r="H7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" t="s">
-        <v>43</v>
+      <c r="I7" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -705,8 +884,8 @@
       <c r="H8" t="s">
         <v>23</v>
       </c>
-      <c r="I8" t="s">
-        <v>44</v>
+      <c r="I8" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -719,8 +898,8 @@
       <c r="H9" t="s">
         <v>24</v>
       </c>
-      <c r="I9" t="s">
-        <v>45</v>
+      <c r="I9" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -733,8 +912,8 @@
       <c r="H10" t="s">
         <v>25</v>
       </c>
-      <c r="I10" t="s">
-        <v>46</v>
+      <c r="I10" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -747,8 +926,8 @@
       <c r="H11" t="s">
         <v>26</v>
       </c>
-      <c r="I11" t="s">
-        <v>47</v>
+      <c r="I11" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="J11">
         <v>7</v>
@@ -761,8 +940,8 @@
       <c r="H12" t="s">
         <v>27</v>
       </c>
-      <c r="I12" t="s">
-        <v>48</v>
+      <c r="I12" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="J12">
         <v>8</v>
@@ -775,8 +954,8 @@
       <c r="H13" t="s">
         <v>28</v>
       </c>
-      <c r="I13" t="s">
-        <v>49</v>
+      <c r="I13" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="J13">
         <v>9</v>
@@ -789,8 +968,8 @@
       <c r="H14" t="s">
         <v>29</v>
       </c>
-      <c r="I14" t="s">
-        <v>50</v>
+      <c r="I14" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="J14">
         <v>10</v>
@@ -803,8 +982,8 @@
       <c r="H15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" t="s">
-        <v>51</v>
+      <c r="I15" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="J15">
         <v>11</v>
@@ -817,8 +996,8 @@
       <c r="H16" t="s">
         <v>31</v>
       </c>
-      <c r="I16" t="s">
-        <v>52</v>
+      <c r="I16" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="J16">
         <v>12</v>
@@ -827,12 +1006,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H17" t="s">
         <v>32</v>
       </c>
-      <c r="I17" t="s">
-        <v>53</v>
+      <c r="I17" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="J17">
         <v>13</v>
@@ -841,12 +1020,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H18" t="s">
         <v>33</v>
       </c>
-      <c r="I18" t="s">
-        <v>54</v>
+      <c r="I18" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="J18">
         <v>14</v>
@@ -855,12 +1034,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H19" t="s">
         <v>34</v>
       </c>
-      <c r="I19" t="s">
-        <v>55</v>
+      <c r="I19" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="J19">
         <v>15</v>
@@ -869,12 +1048,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H20" t="s">
         <v>35</v>
       </c>
-      <c r="I20" t="s">
-        <v>56</v>
+      <c r="I20" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="J20">
         <v>16</v>
@@ -883,12 +1062,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H21" t="s">
         <v>36</v>
       </c>
-      <c r="I21" t="s">
-        <v>57</v>
+      <c r="I21" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J21">
         <v>17</v>
@@ -897,12 +1076,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H22" t="s">
         <v>37</v>
       </c>
-      <c r="I22" t="s">
-        <v>58</v>
+      <c r="I22" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="J22">
         <v>18</v>
@@ -911,12 +1090,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H23" t="s">
         <v>38</v>
       </c>
-      <c r="I23" t="s">
-        <v>59</v>
+      <c r="I23" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="J23">
         <v>19</v>
@@ -925,18 +1104,135 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H24" t="s">
         <v>39</v>
       </c>
-      <c r="I24" t="s">
-        <v>60</v>
+      <c r="I24" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="J24">
         <v>20</v>
       </c>
       <c r="K24" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/DataTables/Datas/__enums__.xlsx
+++ b/Luban/DataTables/Datas/__enums__.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>##var</t>
   </si>
@@ -375,6 +375,13 @@
       </rPr>
       <t>one</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>born</t>
+  </si>
+  <si>
+    <t>自带</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -441,11 +448,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -761,13 +768,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1171,7 +1178,7 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>67</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -1233,6 +1240,20 @@
       </c>
       <c r="K31" s="1" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/DataTables/Datas/__enums__.xlsx
+++ b/Luban/DataTables/Datas/__enums__.xlsx
@@ -87,9 +87,6 @@
     <t>fire</t>
   </si>
   <si>
-    <t>earth</t>
-  </si>
-  <si>
     <t>wind</t>
   </si>
   <si>
@@ -382,6 +379,10 @@
   </si>
   <si>
     <t>自带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>earth</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -731,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -824,7 +825,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -836,13 +837,13 @@
         <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -850,13 +851,13 @@
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -864,270 +865,270 @@
         <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11">
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12">
         <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13">
         <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14">
         <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15">
         <v>11</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16">
         <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17">
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J18">
         <v>14</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19">
         <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J20">
         <v>16</v>
       </c>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J21">
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J22">
         <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J23">
         <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J24">
         <v>20</v>
       </c>
       <c r="K24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -1136,78 +1137,78 @@
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J27">
         <v>2</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J28">
         <v>3</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J29">
         <v>4</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -1216,44 +1217,44 @@
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="J31">
         <v>2</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="J32">
         <v>3</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/DataTables/Datas/__enums__.xlsx
+++ b/Luban/DataTables/Datas/__enums__.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
   <si>
     <t>##var</t>
   </si>
@@ -383,6 +383,34 @@
   </si>
   <si>
     <t>earth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>game.MonsterRating</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -730,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1257,6 +1285,63 @@
         <v>98</v>
       </c>
     </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>102</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>104</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>106</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Luban/DataTables/Datas/__enums__.xlsx
+++ b/Luban/DataTables/Datas/__enums__.xlsx
@@ -242,15 +242,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>kindPoint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>任意相同点数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相同点数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -411,6 +403,14 @@
   </si>
   <si>
     <t>E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kindSix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同点数6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33:H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -865,7 +865,7 @@
         <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -921,7 +921,7 @@
         <v>22</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -935,7 +935,7 @@
         <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -949,7 +949,7 @@
         <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -963,7 +963,7 @@
         <v>25</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J11">
         <v>7</v>
@@ -977,7 +977,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J12">
         <v>8</v>
@@ -991,7 +991,7 @@
         <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J13">
         <v>9</v>
@@ -1005,7 +1005,7 @@
         <v>28</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J14">
         <v>10</v>
@@ -1019,7 +1019,7 @@
         <v>29</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J15">
         <v>11</v>
@@ -1033,7 +1033,7 @@
         <v>30</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J16">
         <v>12</v>
@@ -1047,7 +1047,7 @@
         <v>31</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J17">
         <v>13</v>
@@ -1061,7 +1061,7 @@
         <v>32</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J18">
         <v>14</v>
@@ -1075,7 +1075,7 @@
         <v>33</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J19">
         <v>15</v>
@@ -1089,7 +1089,7 @@
         <v>34</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J20">
         <v>16</v>
@@ -1103,7 +1103,7 @@
         <v>35</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J21">
         <v>17</v>
@@ -1117,7 +1117,7 @@
         <v>36</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J22">
         <v>18</v>
@@ -1131,7 +1131,7 @@
         <v>37</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J23">
         <v>19</v>
@@ -1145,7 +1145,7 @@
         <v>38</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J24">
         <v>20</v>
@@ -1165,16 +1165,16 @@
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -1194,16 +1194,16 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="J27">
         <v>2</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
@@ -1211,13 +1211,13 @@
         <v>66</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J28">
         <v>3</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
@@ -1236,7 +1236,7 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -1245,49 +1245,49 @@
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H31" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J31">
         <v>2</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J32">
         <v>3</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J35">
         <v>3</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J37">
         <v>5</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J38">
         <v>6</v>
